--- a/Mifos Automation Excels/Client/3173-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%INTEREST-Regular-UPFRONT-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3173-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%INTEREST-Regular-UPFRONT-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="737" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="737" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Acc_Disbursement" sheetId="6" r:id="rId5"/>
     <sheet name="Acc_Repaymentdisbursement" sheetId="7" r:id="rId6"/>
     <sheet name="Acc_Upfront" sheetId="8" r:id="rId7"/>
+    <sheet name="Acc_Upfront1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -70,9 +71,6 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -239,13 +237,19 @@
   </si>
   <si>
     <t>3173-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%INTEREST-Regular-UPFRONT</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>Fees Receivable(4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +265,28 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -341,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -383,6 +409,19 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,23 +738,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7">
         <v>42005</v>
@@ -723,7 +762,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7">
         <v>42005</v>
@@ -731,7 +770,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9">
         <v>10000</v>
@@ -739,15 +778,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7">
         <v>42005</v>
@@ -755,7 +794,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="11">
         <v>10000</v>
@@ -763,23 +802,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7">
         <v>42005</v>
@@ -787,23 +826,23 @@
     </row>
     <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7">
         <v>42005</v>
@@ -811,10 +850,10 @@
     </row>
     <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +882,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -1624,15 +1663,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1645,50 +1684,52 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>536</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>875</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="13">
         <v>42005</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="12">
         <v>685.07</v>
@@ -1708,19 +1749,21 @@
       <c r="J2" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>874</v>
+        <v>535</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13">
         <v>42005</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="12">
         <v>6.59</v>
@@ -1740,38 +1783,76 @@
       <c r="J3" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>873</v>
+        <v>534</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="13">
         <v>42005</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="12">
+        <v>6.59</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>6.59</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>533</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="13">
+        <v>42005</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E5" s="14">
         <v>10000</v>
       </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
         <v>10000</v>
       </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1790,31 +1871,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1822,25 +1903,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="17">
         <v>42005</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,25 +1929,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="17">
         <v>42005</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="I3" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1879,38 +1960,38 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1918,25 +1999,25 @@
         <v>24</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="17">
         <v>42005</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="I2" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1944,25 +2025,25 @@
         <v>25</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="17">
         <v>42005</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1982,31 +2063,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2014,7 +2095,7 @@
         <v>1366</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="19">
         <v>42095</v>
@@ -2023,16 +2104,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2040,7 +2121,7 @@
         <v>1367</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="19">
         <v>42095</v>
@@ -2049,17 +2130,115 @@
         <v>3</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>1366</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="24">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>70</v>
-      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>1367</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="24">
+        <v>42095</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
